--- a/LubanConfig/Datas/AvatarFrameConfig.xlsx
+++ b/LubanConfig/Datas/AvatarFrameConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25755" windowHeight="10035"/>
+    <workbookView windowWidth="25755" windowHeight="10590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>##var</t>
   </si>
@@ -96,7 +96,7 @@
     <t>名字(这里配置多语言id)</t>
   </si>
   <si>
-    <t>类型（0头像，1头像框）</t>
+    <t>类型（1头像，2头像框）</t>
   </si>
   <si>
     <t>资源名</t>
@@ -108,343 +108,115 @@
     <t>描述(多语言id)</t>
   </si>
   <si>
-    <t>220006</t>
-  </si>
-  <si>
-    <t>默认头像1</t>
-  </si>
-  <si>
-    <t>head_2</t>
-  </si>
-  <si>
-    <t>220026</t>
-  </si>
-  <si>
-    <t>220007</t>
-  </si>
-  <si>
-    <t>默认头像2</t>
-  </si>
-  <si>
-    <t>head_4</t>
-  </si>
-  <si>
-    <t>220008</t>
-  </si>
-  <si>
-    <t>默认头像3</t>
-  </si>
-  <si>
-    <t>head_1</t>
-  </si>
-  <si>
-    <t>220009</t>
-  </si>
-  <si>
-    <t>默认头像4</t>
-  </si>
-  <si>
-    <t>head_5</t>
-  </si>
-  <si>
-    <t>220010</t>
-  </si>
-  <si>
-    <t>默认头像5</t>
-  </si>
-  <si>
-    <t>head_3</t>
-  </si>
-  <si>
-    <t>220011</t>
-  </si>
-  <si>
-    <t>默认头像6</t>
-  </si>
-  <si>
-    <t>head_6</t>
-  </si>
-  <si>
-    <t>220012</t>
-  </si>
-  <si>
-    <t>默认头像7</t>
-  </si>
-  <si>
-    <t>head_7</t>
-  </si>
-  <si>
-    <t>220013</t>
-  </si>
-  <si>
-    <t>默认头像8</t>
-  </si>
-  <si>
-    <t>head_8</t>
-  </si>
-  <si>
-    <t>220014</t>
-  </si>
-  <si>
-    <t>默认头像9</t>
-  </si>
-  <si>
-    <t>head_9</t>
-  </si>
-  <si>
-    <t>220015</t>
-  </si>
-  <si>
-    <t>默认头像10</t>
-  </si>
-  <si>
-    <t>head_10</t>
-  </si>
-  <si>
-    <t>220016</t>
-  </si>
-  <si>
-    <t>默认头像11</t>
-  </si>
-  <si>
-    <t>head_11</t>
-  </si>
-  <si>
-    <t>220017</t>
-  </si>
-  <si>
-    <t>默认头像12</t>
-  </si>
-  <si>
-    <t>head_12</t>
-  </si>
-  <si>
-    <t>220018</t>
-  </si>
-  <si>
-    <t>默认头像13</t>
-  </si>
-  <si>
-    <t>head_13</t>
-  </si>
-  <si>
-    <t>220019</t>
-  </si>
-  <si>
-    <t>默认头像14</t>
-  </si>
-  <si>
-    <t>head_14</t>
-  </si>
-  <si>
-    <t>220020</t>
-  </si>
-  <si>
-    <t>默认头像15</t>
-  </si>
-  <si>
-    <t>head_15</t>
-  </si>
-  <si>
-    <t>220021</t>
-  </si>
-  <si>
-    <t>默认头像16</t>
-  </si>
-  <si>
-    <t>head_16</t>
-  </si>
-  <si>
-    <t>220022</t>
-  </si>
-  <si>
-    <t>默认头像17</t>
-  </si>
-  <si>
-    <t>head_17</t>
-  </si>
-  <si>
-    <t>220023</t>
-  </si>
-  <si>
-    <t>默认头像18</t>
-  </si>
-  <si>
-    <t>head_18</t>
-  </si>
-  <si>
-    <t>220024</t>
-  </si>
-  <si>
-    <t>默认头像19</t>
-  </si>
-  <si>
-    <t>head_19</t>
-  </si>
-  <si>
-    <t>220025</t>
-  </si>
-  <si>
-    <t>默认头像20</t>
-  </si>
-  <si>
-    <t>head_20</t>
+    <t>220027</t>
+  </si>
+  <si>
+    <t>默认头像框</t>
+  </si>
+  <si>
+    <t>headFrame_8</t>
+  </si>
+  <si>
+    <t>220037</t>
+  </si>
+  <si>
+    <t>220028</t>
+  </si>
+  <si>
+    <t>开服赠送</t>
+  </si>
+  <si>
+    <t>headFrame_9</t>
+  </si>
+  <si>
+    <t>220038</t>
+  </si>
+  <si>
+    <t>220029</t>
+  </si>
+  <si>
+    <t>代理头像框</t>
+  </si>
+  <si>
+    <t>headFrame_10</t>
+  </si>
+  <si>
+    <t>220039</t>
   </si>
   <si>
     <t>220030</t>
   </si>
   <si>
-    <t>VIP头像1</t>
-  </si>
-  <si>
-    <t>head_21</t>
-  </si>
-  <si>
-    <t>220054</t>
+    <t>VIP头像框1</t>
+  </si>
+  <si>
+    <t>headFrame_1</t>
+  </si>
+  <si>
+    <t>220040</t>
   </si>
   <si>
     <t>220031</t>
   </si>
   <si>
-    <t>VIP头像2</t>
-  </si>
-  <si>
-    <t>head_22</t>
+    <t>VIP头像框2</t>
+  </si>
+  <si>
+    <t>headFrame_2</t>
+  </si>
+  <si>
+    <t>220041</t>
   </si>
   <si>
     <t>220032</t>
   </si>
   <si>
-    <t>VIP头像3</t>
-  </si>
-  <si>
-    <t>head_23</t>
+    <t>VIP头像框3</t>
+  </si>
+  <si>
+    <t>headFrame_3</t>
+  </si>
+  <si>
+    <t>220042</t>
   </si>
   <si>
     <t>220033</t>
   </si>
   <si>
-    <t>VIP头像4</t>
-  </si>
-  <si>
-    <t>head_24</t>
+    <t>VIP头像框4</t>
+  </si>
+  <si>
+    <t>headFrame_4</t>
+  </si>
+  <si>
+    <t>220043</t>
   </si>
   <si>
     <t>220034</t>
   </si>
   <si>
-    <t>VIP头像5</t>
-  </si>
-  <si>
-    <t>head_25</t>
+    <t>VIP头像框5</t>
+  </si>
+  <si>
+    <t>headFrame_5</t>
+  </si>
+  <si>
+    <t>220044</t>
   </si>
   <si>
     <t>220035</t>
   </si>
   <si>
-    <t>VIP头像6</t>
-  </si>
-  <si>
-    <t>head_26</t>
+    <t>VIP头像框6</t>
+  </si>
+  <si>
+    <t>headFrame_6</t>
+  </si>
+  <si>
+    <t>220045</t>
   </si>
   <si>
     <t>220036</t>
-  </si>
-  <si>
-    <t>VIP头像7</t>
-  </si>
-  <si>
-    <t>head_27</t>
-  </si>
-  <si>
-    <t>220027</t>
-  </si>
-  <si>
-    <t>默认头像框</t>
-  </si>
-  <si>
-    <t>headFrame_8</t>
-  </si>
-  <si>
-    <t>220037</t>
-  </si>
-  <si>
-    <t>220028</t>
-  </si>
-  <si>
-    <t>开服赠送</t>
-  </si>
-  <si>
-    <t>headFrame_9</t>
-  </si>
-  <si>
-    <t>220038</t>
-  </si>
-  <si>
-    <t>220029</t>
-  </si>
-  <si>
-    <t>代理头像框</t>
-  </si>
-  <si>
-    <t>headFrame_10</t>
-  </si>
-  <si>
-    <t>220039</t>
-  </si>
-  <si>
-    <t>VIP头像框1</t>
-  </si>
-  <si>
-    <t>headFrame_1</t>
-  </si>
-  <si>
-    <t>220040</t>
-  </si>
-  <si>
-    <t>VIP头像框2</t>
-  </si>
-  <si>
-    <t>headFrame_2</t>
-  </si>
-  <si>
-    <t>220041</t>
-  </si>
-  <si>
-    <t>VIP头像框3</t>
-  </si>
-  <si>
-    <t>headFrame_3</t>
-  </si>
-  <si>
-    <t>220042</t>
-  </si>
-  <si>
-    <t>VIP头像框4</t>
-  </si>
-  <si>
-    <t>headFrame_4</t>
-  </si>
-  <si>
-    <t>220043</t>
-  </si>
-  <si>
-    <t>VIP头像框5</t>
-  </si>
-  <si>
-    <t>headFrame_5</t>
-  </si>
-  <si>
-    <t>220044</t>
-  </si>
-  <si>
-    <t>VIP头像框6</t>
-  </si>
-  <si>
-    <t>headFrame_6</t>
-  </si>
-  <si>
-    <t>220045</t>
   </si>
   <si>
     <t>VIP头像框7</t>
@@ -1123,11 +895,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1147,6 +920,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1520,9 +1294,9 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9"/>
       <c r="O1"/>
       <c r="P1"/>
       <c r="Q1"/>
@@ -1571,11 +1345,11 @@
         <v>10</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="9"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -1622,11 +1396,11 @@
         <v>17</v>
       </c>
       <c r="I3" s="3"/>
-      <c r="J3" s="14"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="14"/>
+      <c r="L3" s="13"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="9"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -1650,815 +1424,349 @@
       <c r="AI3"/>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="5">
+        <v>700001</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5" t="s">
+      <c r="G4"/>
+      <c r="H4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="14"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="5">
+        <v>700002</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="G5"/>
+      <c r="H5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>25</v>
+      <c r="B6" s="5">
+        <v>700003</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="K6" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="K6" s="14"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
+      <c r="B7" s="5">
+        <v>700004</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="5">
+        <v>700005</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="K8" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="K8" s="14"/>
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>34</v>
+      <c r="B9" s="5">
+        <v>700006</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="K9" s="14"/>
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10">
-        <v>1007</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
+      <c r="B10" s="5">
+        <v>700007</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="K10" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11">
-        <v>1008</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>40</v>
+      <c r="B11" s="5">
+        <v>700008</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="K11" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="K11" s="14"/>
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12">
-        <v>1009</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
+      <c r="B12" s="5">
+        <v>700009</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="K12" s="14"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>46</v>
+      <c r="B13" s="5">
+        <v>700010</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="K13" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="K13" s="14"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14">
-        <v>1011</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8">
-      <c r="B15">
-        <v>1012</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
-      <c r="B16">
-        <v>1013</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17">
-        <v>1014</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18">
-        <v>1015</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19">
-        <v>1016</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20">
-        <v>1017</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21">
-        <v>1018</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22">
-        <v>1019</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23">
-        <v>1020</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>78</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24">
-        <v>1021</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25">
-        <v>1022</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26">
-        <v>1023</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27">
-        <v>1024</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28">
-        <v>1025</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29">
-        <v>1026</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30">
-        <v>1027</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31">
-        <v>6001</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32">
-        <v>6002</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33">
-        <v>6003</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34">
-        <v>6004</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35">
-        <v>6005</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36">
-        <v>6006</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>120</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37">
-        <v>6007</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38">
-        <v>6008</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G38">
-        <v>5</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39">
-        <v>6009</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39" t="s">
-        <v>129</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40">
-        <v>6010</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40">
-        <v>7</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>133</v>
-      </c>
+    <row r="14" spans="8:8">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
